--- a/data/trans_orig/P43D-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P43D-Habitat-trans_orig.xlsx
@@ -624,19 +624,19 @@
         <v>77796</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>62766</v>
+        <v>64340</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>94068</v>
+        <v>93808</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2477401622339006</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1998785291730403</v>
+        <v>0.2048885076851725</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2995587396439033</v>
+        <v>0.2987301886500059</v>
       </c>
     </row>
     <row r="5">
@@ -653,19 +653,19 @@
         <v>107432</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>90927</v>
+        <v>93092</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>124526</v>
+        <v>124168</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.342114014897453</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2895554951623596</v>
+        <v>0.2964509979020695</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3965518210125333</v>
+        <v>0.3954118241879337</v>
       </c>
     </row>
     <row r="6">
@@ -682,19 +682,19 @@
         <v>71759</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>57743</v>
+        <v>56925</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>87418</v>
+        <v>86541</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2285160060373157</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1838820651003724</v>
+        <v>0.1812762042209243</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2783824068459798</v>
+        <v>0.2755874840196649</v>
       </c>
     </row>
     <row r="7">
@@ -711,19 +711,19 @@
         <v>57036</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>43317</v>
+        <v>44586</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>71364</v>
+        <v>71919</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1816298168313307</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1379410438961954</v>
+        <v>0.1419844360382516</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2272587086640575</v>
+        <v>0.2290243416957779</v>
       </c>
     </row>
     <row r="8">
@@ -773,19 +773,19 @@
         <v>126451</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>107543</v>
+        <v>106227</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>146106</v>
+        <v>145964</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2557060165584334</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2174720680634759</v>
+        <v>0.2148097749670994</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2954521266415418</v>
+        <v>0.2951663065163656</v>
       </c>
     </row>
     <row r="10">
@@ -802,19 +802,19 @@
         <v>153641</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>133886</v>
+        <v>135079</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>175281</v>
+        <v>176678</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.310689687283654</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2707419675546033</v>
+        <v>0.273154070192218</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3544501926429943</v>
+        <v>0.3572745241387718</v>
       </c>
     </row>
     <row r="11">
@@ -831,19 +831,19 @@
         <v>130025</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>111140</v>
+        <v>110909</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>153663</v>
+        <v>153373</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2629342121088401</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2247457417601181</v>
+        <v>0.2242770873533674</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3107347619742868</v>
+        <v>0.3101474107981681</v>
       </c>
     </row>
     <row r="12">
@@ -860,19 +860,19 @@
         <v>84399</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>67234</v>
+        <v>69623</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>103838</v>
+        <v>103432</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1706700840490725</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1359582479461547</v>
+        <v>0.1407901562034124</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2099790722379733</v>
+        <v>0.209157330587766</v>
       </c>
     </row>
     <row r="13">
@@ -922,19 +922,19 @@
         <v>91313</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>75672</v>
+        <v>75664</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>108540</v>
+        <v>110670</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2421328485063997</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2006592274241762</v>
+        <v>0.2006368631577283</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2878146582014397</v>
+        <v>0.293462923468836</v>
       </c>
     </row>
     <row r="15">
@@ -951,19 +951,19 @@
         <v>100551</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>84435</v>
+        <v>84329</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>120884</v>
+        <v>116144</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2666306235508753</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2238957257437116</v>
+        <v>0.2236154776696187</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3205472724641767</v>
+        <v>0.3079774744447051</v>
       </c>
     </row>
     <row r="16">
@@ -980,19 +980,19 @@
         <v>118320</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>100145</v>
+        <v>101711</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>136383</v>
+        <v>136399</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3137490839186873</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2655528398322313</v>
+        <v>0.2697049535495473</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3616453812222686</v>
+        <v>0.3616866744938433</v>
       </c>
     </row>
     <row r="17">
@@ -1009,19 +1009,19 @@
         <v>66934</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>53384</v>
+        <v>53316</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>82635</v>
+        <v>82848</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1774874440240378</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1415567376179081</v>
+        <v>0.1413777385413761</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.219122374293947</v>
+        <v>0.2196883495947108</v>
       </c>
     </row>
     <row r="18">
@@ -1071,19 +1071,19 @@
         <v>125980</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>105713</v>
+        <v>105450</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>144567</v>
+        <v>145435</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2122835671977754</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1781331228349002</v>
+        <v>0.1776889333661507</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2436027092592369</v>
+        <v>0.2450669570758958</v>
       </c>
     </row>
     <row r="20">
@@ -1100,19 +1100,19 @@
         <v>192430</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>169969</v>
+        <v>169964</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>213839</v>
+        <v>216446</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3242549789506031</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2864073485339164</v>
+        <v>0.2863991475211983</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3603310469479343</v>
+        <v>0.3647242188986013</v>
       </c>
     </row>
     <row r="21">
@@ -1129,19 +1129,19 @@
         <v>151575</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>131545</v>
+        <v>132145</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>176216</v>
+        <v>173744</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2554129241900534</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2216610121832598</v>
+        <v>0.2226712542503987</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2969331422792699</v>
+        <v>0.2927683462092053</v>
       </c>
     </row>
     <row r="22">
@@ -1158,19 +1158,19 @@
         <v>123467</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>103601</v>
+        <v>102224</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>143643</v>
+        <v>144443</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2080485296615681</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1745730778245771</v>
+        <v>0.1722535354243657</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2420471484710825</v>
+        <v>0.2433946923224143</v>
       </c>
     </row>
     <row r="23">
@@ -1220,19 +1220,19 @@
         <v>421540</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>385495</v>
+        <v>386350</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>457917</v>
+        <v>459724</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2369385911157015</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2166787100121388</v>
+        <v>0.2171595389119526</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2573853971836931</v>
+        <v>0.2584010304659555</v>
       </c>
     </row>
     <row r="25">
@@ -1249,19 +1249,19 @@
         <v>554054</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>515162</v>
+        <v>512638</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>591369</v>
+        <v>593794</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3114219939752454</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2895619651179152</v>
+        <v>0.2881429094966899</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3323963876632391</v>
+        <v>0.3337591503472575</v>
       </c>
     </row>
     <row r="26">
@@ -1278,19 +1278,19 @@
         <v>471680</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>438420</v>
+        <v>434717</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>512528</v>
+        <v>508739</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2651215787801384</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2464266305844757</v>
+        <v>0.2443452863253578</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2880812473869181</v>
+        <v>0.285951616626042</v>
       </c>
     </row>
     <row r="27">
@@ -1307,19 +1307,19 @@
         <v>331836</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>299937</v>
+        <v>301357</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>364391</v>
+        <v>366339</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1865178361289147</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1685883874098451</v>
+        <v>0.1693864688288932</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2048163756879579</v>
+        <v>0.2059117492295763</v>
       </c>
     </row>
     <row r="28">
@@ -1487,19 +1487,19 @@
         <v>104068</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>85863</v>
+        <v>85872</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>122302</v>
+        <v>125160</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2414356463984186</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1992012115927136</v>
+        <v>0.1992202050966115</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2837379640360658</v>
+        <v>0.2903674791571725</v>
       </c>
     </row>
     <row r="5">
@@ -1516,19 +1516,19 @@
         <v>135995</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>117403</v>
+        <v>116068</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>156617</v>
+        <v>157096</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3155056866643136</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2723728484120075</v>
+        <v>0.2692744907086013</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3633464996018453</v>
+        <v>0.3644595816785803</v>
       </c>
     </row>
     <row r="6">
@@ -1545,19 +1545,19 @@
         <v>118447</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>100451</v>
+        <v>101907</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>137483</v>
+        <v>140147</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2747951151951186</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2330449177345631</v>
+        <v>0.2364216995797313</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3189568939836899</v>
+        <v>0.3251369675213818</v>
       </c>
     </row>
     <row r="7">
@@ -1574,19 +1574,19 @@
         <v>72528</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>57798</v>
+        <v>58067</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>91171</v>
+        <v>89693</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1682635517421492</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1340906827028715</v>
+        <v>0.1347129797360307</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2115142719092835</v>
+        <v>0.2080853286301295</v>
       </c>
     </row>
     <row r="8">
@@ -1636,19 +1636,19 @@
         <v>112038</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>92883</v>
+        <v>94521</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>133559</v>
+        <v>133525</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.169754680020666</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.140732035581172</v>
+        <v>0.1432136806653241</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2023628808740793</v>
+        <v>0.202312067649818</v>
       </c>
     </row>
     <row r="10">
@@ -1665,19 +1665,19 @@
         <v>251065</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>224424</v>
+        <v>225892</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>277254</v>
+        <v>278037</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3804032991823596</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3400381244259867</v>
+        <v>0.3422619097690239</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4200840032111492</v>
+        <v>0.4212693807578458</v>
       </c>
     </row>
     <row r="11">
@@ -1694,19 +1694,19 @@
         <v>175192</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>152033</v>
+        <v>152040</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>198143</v>
+        <v>199630</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2654431713396322</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2303536690524392</v>
+        <v>0.2303652155412703</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3002184264481522</v>
+        <v>0.302470835691946</v>
       </c>
     </row>
     <row r="12">
@@ -1723,19 +1723,19 @@
         <v>121703</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>102081</v>
+        <v>103005</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>142717</v>
+        <v>145261</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1843988494573423</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1546687850137703</v>
+        <v>0.1560695383502028</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2162385244584345</v>
+        <v>0.2200939028603366</v>
       </c>
     </row>
     <row r="13">
@@ -1785,19 +1785,19 @@
         <v>81020</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>64863</v>
+        <v>65337</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>100746</v>
+        <v>97906</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1501037069753627</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1201697310021302</v>
+        <v>0.1210478962354875</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1866489298713638</v>
+        <v>0.1813881294698131</v>
       </c>
     </row>
     <row r="15">
@@ -1814,19 +1814,19 @@
         <v>171664</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>147936</v>
+        <v>147912</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>193308</v>
+        <v>195321</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.3180383057489488</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.274077751032886</v>
+        <v>0.274033729915104</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.358136325554515</v>
+        <v>0.3618655433797731</v>
       </c>
     </row>
     <row r="16">
@@ -1843,19 +1843,19 @@
         <v>169108</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>146338</v>
+        <v>145276</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>192112</v>
+        <v>191975</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3133014834876212</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2711167994691103</v>
+        <v>0.2691488808339387</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3559219827580973</v>
+        <v>0.3556671066945394</v>
       </c>
     </row>
     <row r="17">
@@ -1872,19 +1872,19 @@
         <v>117968</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>97898</v>
+        <v>100241</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>138560</v>
+        <v>140131</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2185565037880673</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1813730336536516</v>
+        <v>0.1857146898518265</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2567074425433669</v>
+        <v>0.2596165484537379</v>
       </c>
     </row>
     <row r="18">
@@ -1934,19 +1934,19 @@
         <v>149163</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>129172</v>
+        <v>127026</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>172657</v>
+        <v>170439</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2263039564357366</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1959737326188092</v>
+        <v>0.1927178847383328</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2619469177791729</v>
+        <v>0.2585832325235479</v>
       </c>
     </row>
     <row r="20">
@@ -1963,19 +1963,19 @@
         <v>231625</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>207839</v>
+        <v>205662</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>257104</v>
+        <v>256558</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.35141115326466</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3153234578759765</v>
+        <v>0.3120213384309342</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3900662867096199</v>
+        <v>0.3892381110755152</v>
       </c>
     </row>
     <row r="21">
@@ -1992,19 +1992,19 @@
         <v>175982</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>154942</v>
+        <v>153429</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>199488</v>
+        <v>200168</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2669928103981277</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2350709795432921</v>
+        <v>0.2327763240499565</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3026540736477178</v>
+        <v>0.3036862447614563</v>
       </c>
     </row>
     <row r="22">
@@ -2021,19 +2021,19 @@
         <v>102357</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>84680</v>
+        <v>85291</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>121752</v>
+        <v>122896</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1552920799014756</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1284733546559768</v>
+        <v>0.129400016493549</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.184716239672492</v>
+        <v>0.1864530930863968</v>
       </c>
     </row>
     <row r="23">
@@ -2083,19 +2083,19 @@
         <v>446289</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>407035</v>
+        <v>407493</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>482690</v>
+        <v>485637</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1948924972432961</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1777502841369793</v>
+        <v>0.1779503595175504</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2107887756466807</v>
+        <v>0.2120754504530567</v>
       </c>
     </row>
     <row r="25">
@@ -2112,19 +2112,19 @@
         <v>790350</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>738455</v>
+        <v>741710</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>835961</v>
+        <v>835344</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3451422706086662</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3224799171714019</v>
+        <v>0.3239015103063673</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3650607487862932</v>
+        <v>0.3647910445215047</v>
       </c>
     </row>
     <row r="26">
@@ -2141,19 +2141,19 @@
         <v>638729</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>592392</v>
+        <v>593527</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>682211</v>
+        <v>683076</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2789302878226556</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2586951451044591</v>
+        <v>0.2591908314956755</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2979186387349765</v>
+        <v>0.2982962546024898</v>
       </c>
     </row>
     <row r="27">
@@ -2170,19 +2170,19 @@
         <v>414556</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>378484</v>
+        <v>376927</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>455363</v>
+        <v>455811</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1810349443253821</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1652822547049987</v>
+        <v>0.1646023118769306</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1988551270479106</v>
+        <v>0.1990505392402565</v>
       </c>
     </row>
     <row r="28">
@@ -2350,19 +2350,19 @@
         <v>82680</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>67816</v>
+        <v>67933</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>98813</v>
+        <v>99493</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2231428807548607</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1830280319227648</v>
+        <v>0.1833432729259277</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2666829866984004</v>
+        <v>0.2685178171679874</v>
       </c>
     </row>
     <row r="5">
@@ -2379,19 +2379,19 @@
         <v>157509</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>139503</v>
+        <v>140530</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>177468</v>
+        <v>178346</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4250980017916337</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3764997738429436</v>
+        <v>0.3792732162835896</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4789642930036145</v>
+        <v>0.4813328941309779</v>
       </c>
     </row>
     <row r="6">
@@ -2408,19 +2408,19 @@
         <v>79444</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>66111</v>
+        <v>65449</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>96179</v>
+        <v>95367</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2144104844145508</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1784251850713574</v>
+        <v>0.176638596002902</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2595737582555188</v>
+        <v>0.2573833776927993</v>
       </c>
     </row>
     <row r="7">
@@ -2437,19 +2437,19 @@
         <v>50891</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>38728</v>
+        <v>38758</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>63797</v>
+        <v>63770</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1373486330389547</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1045219075193221</v>
+        <v>0.1046040741106109</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.172179248847393</v>
+        <v>0.1721081603951387</v>
       </c>
     </row>
     <row r="8">
@@ -2499,19 +2499,19 @@
         <v>155269</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>133196</v>
+        <v>132591</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>179134</v>
+        <v>177857</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2328404176889494</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1997391187890171</v>
+        <v>0.1988319793110912</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2686277895427368</v>
+        <v>0.2667123355338538</v>
       </c>
     </row>
     <row r="10">
@@ -2528,19 +2528,19 @@
         <v>285822</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>259609</v>
+        <v>261442</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>310773</v>
+        <v>311762</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4286169581022409</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3893083159995454</v>
+        <v>0.3920557412598447</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4660323929913537</v>
+        <v>0.4675164512486191</v>
       </c>
     </row>
     <row r="11">
@@ -2557,19 +2557,19 @@
         <v>153589</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>130299</v>
+        <v>132343</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>174434</v>
+        <v>175382</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2303213262167069</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1953952209686992</v>
+        <v>0.1984610844342083</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2615797200168566</v>
+        <v>0.2630016246269539</v>
       </c>
     </row>
     <row r="12">
@@ -2586,19 +2586,19 @@
         <v>72167</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>57154</v>
+        <v>56211</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>89751</v>
+        <v>89417</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1082212979921028</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.08570731957291035</v>
+        <v>0.08429325336158278</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1345902009445627</v>
+        <v>0.1340886679312479</v>
       </c>
     </row>
     <row r="13">
@@ -2648,19 +2648,19 @@
         <v>117459</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>97752</v>
+        <v>98409</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>137128</v>
+        <v>137466</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2316894603638917</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1928172588770401</v>
+        <v>0.1941130621946192</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2704856911517162</v>
+        <v>0.2711526131307915</v>
       </c>
     </row>
     <row r="15">
@@ -2677,19 +2677,19 @@
         <v>212351</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>190612</v>
+        <v>188625</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>235810</v>
+        <v>236395</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.4188648110152616</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3759839822766518</v>
+        <v>0.3720646235295357</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4651387948874529</v>
+        <v>0.4662925694049311</v>
       </c>
     </row>
     <row r="16">
@@ -2706,19 +2706,19 @@
         <v>115227</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>97271</v>
+        <v>97200</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>134741</v>
+        <v>134727</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2272869714540706</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.191867981002022</v>
+        <v>0.1917288626355521</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2657773618605381</v>
+        <v>0.2657513995413011</v>
       </c>
     </row>
     <row r="17">
@@ -2735,19 +2735,19 @@
         <v>61931</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>47709</v>
+        <v>49149</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>77866</v>
+        <v>79879</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1221587571667761</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.09410738080941174</v>
+        <v>0.09694666217235258</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1535910321832049</v>
+        <v>0.1575631242729853</v>
       </c>
     </row>
     <row r="18">
@@ -2797,19 +2797,19 @@
         <v>175519</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>153026</v>
+        <v>152407</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>200139</v>
+        <v>200204</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2526378168674714</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2202619519493054</v>
+        <v>0.2193721106781299</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2880760361001913</v>
+        <v>0.288169460272261</v>
       </c>
     </row>
     <row r="20">
@@ -2826,19 +2826,19 @@
         <v>275514</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>249829</v>
+        <v>248861</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>304651</v>
+        <v>299883</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3965689001586505</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3595982724878715</v>
+        <v>0.3582052363746789</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4385077802885657</v>
+        <v>0.4316454899395932</v>
       </c>
     </row>
     <row r="21">
@@ -2855,19 +2855,19 @@
         <v>145979</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>124750</v>
+        <v>124083</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>169574</v>
+        <v>168426</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2101192696623469</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1795628121446585</v>
+        <v>0.1786017769662415</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2440813366177992</v>
+        <v>0.242428599221804</v>
       </c>
     </row>
     <row r="22">
@@ -2884,19 +2884,19 @@
         <v>97732</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>80358</v>
+        <v>78968</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>119546</v>
+        <v>119839</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1406740133115312</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1156652194219958</v>
+        <v>0.1136650806190175</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1720723481629409</v>
+        <v>0.1724934727951656</v>
       </c>
     </row>
     <row r="23">
@@ -2946,19 +2946,19 @@
         <v>530927</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>488565</v>
+        <v>488244</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>569256</v>
+        <v>572325</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2371178102170344</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2181981970597755</v>
+        <v>0.2180548896271747</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2542358482793081</v>
+        <v>0.2556066306937591</v>
       </c>
     </row>
     <row r="25">
@@ -2975,19 +2975,19 @@
         <v>931197</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>883562</v>
+        <v>880120</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>979581</v>
+        <v>980574</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.4158826986131929</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3946083140207663</v>
+        <v>0.3930710532400413</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.437491455616569</v>
+        <v>0.4379350264934866</v>
       </c>
     </row>
     <row r="26">
@@ -3004,19 +3004,19 @@
         <v>494240</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>457437</v>
+        <v>457038</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>536234</v>
+        <v>535136</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2207330563461365</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2042961805959334</v>
+        <v>0.2041180697179382</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2394880524838458</v>
+        <v>0.2389977301814605</v>
       </c>
     </row>
     <row r="27">
@@ -3033,19 +3033,19 @@
         <v>282721</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>253162</v>
+        <v>252879</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>317486</v>
+        <v>317346</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1262664348236361</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1130650397369679</v>
+        <v>0.1129385610467744</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1417926589590569</v>
+        <v>0.1417302631037913</v>
       </c>
     </row>
     <row r="28">
@@ -3213,19 +3213,19 @@
         <v>90722</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>78614</v>
+        <v>78857</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>102727</v>
+        <v>103696</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3185247528270121</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2760160783055901</v>
+        <v>0.2768667647341856</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3606757534983996</v>
+        <v>0.364077708367973</v>
       </c>
     </row>
     <row r="5">
@@ -3242,19 +3242,19 @@
         <v>103325</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>91649</v>
+        <v>90626</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>116966</v>
+        <v>116467</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3627762085797104</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3217809503033465</v>
+        <v>0.3181893852967046</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4106688716163412</v>
+        <v>0.4089169750750854</v>
       </c>
     </row>
     <row r="6">
@@ -3271,19 +3271,19 @@
         <v>58648</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>47487</v>
+        <v>47103</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>73028</v>
+        <v>72085</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2059154738137981</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1667274287933841</v>
+        <v>0.1653779196483038</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2564026600590844</v>
+        <v>0.2530907783223686</v>
       </c>
     </row>
     <row r="7">
@@ -3300,19 +3300,19 @@
         <v>32123</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>23893</v>
+        <v>23767</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>43313</v>
+        <v>41862</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1127835647794795</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.08388905971183964</v>
+        <v>0.0834445255756598</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1520740368345053</v>
+        <v>0.1469775427738184</v>
       </c>
     </row>
     <row r="8">
@@ -3362,19 +3362,19 @@
         <v>112686</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>97219</v>
+        <v>98622</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>128187</v>
+        <v>127673</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2673629534307016</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2306656360649017</v>
+        <v>0.233992484089187</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.304139589754345</v>
+        <v>0.3029210031492071</v>
       </c>
     </row>
     <row r="10">
@@ -3391,19 +3391,19 @@
         <v>163638</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>146994</v>
+        <v>146268</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>179389</v>
+        <v>181584</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3882518531314321</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3487614755963681</v>
+        <v>0.347040028141498</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4256242506419748</v>
+        <v>0.4308323668925679</v>
       </c>
     </row>
     <row r="11">
@@ -3420,19 +3420,19 @@
         <v>97028</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>82358</v>
+        <v>83108</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>111481</v>
+        <v>112842</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2302128095254699</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1954054413044088</v>
+        <v>0.1971849321603801</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2645042196968653</v>
+        <v>0.2677327977825762</v>
       </c>
     </row>
     <row r="12">
@@ -3449,19 +3449,19 @@
         <v>48121</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>38015</v>
+        <v>37414</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>61551</v>
+        <v>60604</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1141723839123963</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.09019632665396606</v>
+        <v>0.08877036271947775</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1460375610475897</v>
+        <v>0.1437906145809826</v>
       </c>
     </row>
     <row r="13">
@@ -3511,19 +3511,19 @@
         <v>110915</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>94973</v>
+        <v>96238</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>124991</v>
+        <v>125897</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3017499829688567</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.258379249194607</v>
+        <v>0.2618211666037105</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3400466872705057</v>
+        <v>0.3425096636249835</v>
       </c>
     </row>
     <row r="15">
@@ -3540,19 +3540,19 @@
         <v>122030</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>107975</v>
+        <v>107126</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>139248</v>
+        <v>138967</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.331989689649195</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2937533839907328</v>
+        <v>0.2914428404631368</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3788342593686096</v>
+        <v>0.3780694440060335</v>
       </c>
     </row>
     <row r="16">
@@ -3569,19 +3569,19 @@
         <v>78678</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>65218</v>
+        <v>64298</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>93218</v>
+        <v>92179</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2140481306233114</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.177430745203325</v>
+        <v>0.1749269877409193</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2536054035956258</v>
+        <v>0.2507789563843445</v>
       </c>
     </row>
     <row r="17">
@@ -3598,19 +3598,19 @@
         <v>55949</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>43286</v>
+        <v>45333</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>69325</v>
+        <v>71024</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1522121967586369</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1177615368321463</v>
+        <v>0.1233312184589614</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1886039217852087</v>
+        <v>0.1932252271901471</v>
       </c>
     </row>
     <row r="18">
@@ -3660,19 +3660,19 @@
         <v>164198</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>147385</v>
+        <v>146200</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>183305</v>
+        <v>180821</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3095297052450546</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2778356575762891</v>
+        <v>0.2756010214505246</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3455484413811082</v>
+        <v>0.3408646208052417</v>
       </c>
     </row>
     <row r="20">
@@ -3689,19 +3689,19 @@
         <v>156938</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>139897</v>
+        <v>140184</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>175797</v>
+        <v>176849</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.2958443825452734</v>
+        <v>0.2958443825452733</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2637188429967159</v>
+        <v>0.2642607291255662</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.331395613426092</v>
+        <v>0.3333780078337832</v>
       </c>
     </row>
     <row r="21">
@@ -3718,19 +3718,19 @@
         <v>115754</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>99848</v>
+        <v>100362</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>132488</v>
+        <v>134279</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2182072014236268</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1882236365673065</v>
+        <v>0.1891922538171625</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2497528615161628</v>
+        <v>0.2531284705613813</v>
       </c>
     </row>
     <row r="22">
@@ -3747,19 +3747,19 @@
         <v>93586</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>78042</v>
+        <v>79059</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>110325</v>
+        <v>110226</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1764187107860453</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1471164966119586</v>
+        <v>0.1490337468096236</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2079729799088171</v>
+        <v>0.2077862809151271</v>
       </c>
     </row>
     <row r="23">
@@ -3809,19 +3809,19 @@
         <v>478520</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>451018</v>
+        <v>449537</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>510135</v>
+        <v>511239</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2982666287554234</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2811242626675721</v>
+        <v>0.2802006789194221</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3179720714375642</v>
+        <v>0.3186604656107699</v>
       </c>
     </row>
     <row r="25">
@@ -3838,19 +3838,19 @@
         <v>545931</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>513887</v>
+        <v>514521</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>577128</v>
+        <v>580668</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3402842634971081</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3203111659076128</v>
+        <v>0.3207063287416353</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3597298455247792</v>
+        <v>0.3619360014752174</v>
       </c>
     </row>
     <row r="26">
@@ -3867,19 +3867,19 @@
         <v>350108</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>322463</v>
+        <v>322446</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>378392</v>
+        <v>381804</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2182261352880227</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2009946954468392</v>
+        <v>0.2009835609515069</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2358552927737451</v>
+        <v>0.2379825587340045</v>
       </c>
     </row>
     <row r="27">
@@ -3896,19 +3896,19 @@
         <v>229778</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>208475</v>
+        <v>206933</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>254744</v>
+        <v>255412</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.1432229724594457</v>
+        <v>0.1432229724594458</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1299445527062253</v>
+        <v>0.1289835216721252</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1587843918181361</v>
+        <v>0.1592005689231437</v>
       </c>
     </row>
     <row r="28">
